--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kusztal.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Kusztal.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,963 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:24:44.37</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.4870556713</v>
       </c>
       <c r="B2" t="n">
+        <v>2872.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.782872881208144</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.50690752315</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4587.7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.927928856440952</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.51220729166</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5045.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.523018734795707</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.48705335648</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2872.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.955773200307573</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.50690520833</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4587.5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.55770032746451</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.51220497685</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5045.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.461888875280107</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59177627315</v>
+      </c>
+      <c r="B8" t="n">
+        <v>529.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.009791323116847</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59248460648</v>
+      </c>
+      <c r="B9" t="n">
+        <v>590.6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.506721598761423</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59383530093</v>
+      </c>
+      <c r="B10" t="n">
+        <v>707.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.697062117712838</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59130752315</v>
+      </c>
+      <c r="B11" t="n">
+        <v>488.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.866980399404252</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59248113426</v>
+      </c>
+      <c r="B12" t="n">
+        <v>590.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.211378642490933</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59383298611</v>
+      </c>
+      <c r="B13" t="n">
+        <v>707.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.573243090084621</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684.60051354166</v>
+      </c>
+      <c r="B14" t="n">
         <v>1284.3</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C14" t="n">
         <v>13.53</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D14" t="n">
         <v>3.674399614334106</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:27:06.67</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684.60216053241</v>
+      </c>
+      <c r="B15" t="n">
         <v>1426.6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C15" t="n">
         <v>13.88</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D15" t="n">
         <v>3.657331671033586</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 15:05:11.77</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3711.7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.446290356772287</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:17.47</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2217.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.022072655814036</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:40:44.97</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2244.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.99082476752145</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:50:21.67</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2821.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.09103866985866</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:03:29.81</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45684.60346030092</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1538.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.951944419315885</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45684.59839664352</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1101.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.797082100595746</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45684.60051006945</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1284</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.858810535499027</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45684.60215706019</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1426.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.693960411208014</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.65130914352</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1388.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.541718551090787</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.65796076389</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1962.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3.666645833424162</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.65866215277</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2023.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.484031813485283</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.64713321759</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1027.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.236595051629203</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.65130567129</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1387.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.267182792936052</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.65602673611</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1795.7</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.101976701191493</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.66909502315</v>
+      </c>
+      <c r="B26" t="n">
         <v>2924.8</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C26" t="n">
         <v>14.68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D26" t="n">
         <v>4.258690834045412</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:15:59.71</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.6777744213</v>
+      </c>
+      <c r="B27" t="n">
         <v>3674.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C27" t="n">
         <v>13.22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D27" t="n">
         <v>4.141723905290876</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:24:35.51</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45685.6837443287</v>
+      </c>
+      <c r="B28" t="n">
         <v>4190.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C28" t="n">
         <v>14.17</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D28" t="n">
         <v>3.861694676535471</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:31:52.31</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1027.3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.236595051629203</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:37:52.81</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1387.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.267182792936052</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:15:59.51</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45685.66909155092</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2924.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.125275343656541</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45685.66951168981</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2960.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.941868884222849</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45685.67777210648</v>
+      </c>
+      <c r="B31" t="n">
         <v>3674.5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C31" t="n">
         <v>8.65</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D31" t="n">
         <v>3.41021989924567</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.4737400463</v>
+      </c>
+      <c r="B33" t="n">
+        <v>979</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.295346387795039</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.4765375</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1220.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.152039842946188</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.47889282407</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1424.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8506987180028643</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.48591018518</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2030.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.750445944922312</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.48801203704</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2212.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.222822087151666</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.50038125</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3280.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.091275317328316</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.48590902778</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2030.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.724683829716274</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45686.48611967592</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2048.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.551902839115688</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45686.49835115741</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3105.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.557628205844332</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
